--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,157 +22,241 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009808</t>
+  </si>
+  <si>
+    <t>005228</t>
+  </si>
+  <si>
+    <t>010654</t>
+  </si>
+  <si>
+    <t>202801</t>
+  </si>
+  <si>
     <t>007346</t>
   </si>
   <si>
+    <t>010644</t>
+  </si>
+  <si>
+    <t>010645</t>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>006796</t>
+  </si>
+  <si>
+    <t>010655</t>
+  </si>
+  <si>
+    <t>470888</t>
+  </si>
+  <si>
     <t>008861</t>
   </si>
   <si>
+    <t>008656</t>
+  </si>
+  <si>
     <t>010093</t>
   </si>
   <si>
-    <t>005228</t>
-  </si>
-  <si>
-    <t>202801</t>
-  </si>
-  <si>
-    <t>009808</t>
-  </si>
-  <si>
-    <t>470888</t>
-  </si>
-  <si>
-    <t>006796</t>
-  </si>
-  <si>
-    <t>010644</t>
-  </si>
-  <si>
-    <t>010645</t>
-  </si>
-  <si>
-    <t>010654</t>
-  </si>
-  <si>
-    <t>010655</t>
-  </si>
-  <si>
-    <t>008655</t>
-  </si>
-  <si>
-    <t>008656</t>
+    <t>易方达创新成长混合</t>
+  </si>
+  <si>
+    <t>汇添富港股通专注成长混合</t>
+  </si>
+  <si>
+    <t>天弘医药创新混合A</t>
+  </si>
+  <si>
+    <t>南方全球精选配置(QDII-FOF)</t>
   </si>
   <si>
     <t>易方达科技创新混合</t>
   </si>
   <si>
+    <t>富国全球健康生活主题混合（QDII）人民币</t>
+  </si>
+  <si>
+    <t>富国全球健康生活主题混合（QDII）美元</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>富国消费升级混合</t>
+  </si>
+  <si>
+    <t>天弘医药创新混合C</t>
+  </si>
+  <si>
+    <t>汇添富香港优势精选混合 (QDII)</t>
+  </si>
+  <si>
     <t>西部利得港股通新机遇灵活配置混合A</t>
   </si>
   <si>
+    <t>招商科技创新混合C</t>
+  </si>
+  <si>
     <t>西部利得港股通新机遇灵活配置混合C</t>
   </si>
   <si>
-    <t>汇添富港股通专注成长混合</t>
-  </si>
-  <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
-  </si>
-  <si>
-    <t>易方达创新成长混合</t>
-  </si>
-  <si>
-    <t>汇添富香港优势精选混合 (QDII)</t>
-  </si>
-  <si>
-    <t>富国消费升级混合</t>
-  </si>
-  <si>
-    <t>富国全球健康生活主题混合（QDII）人民币</t>
-  </si>
-  <si>
-    <t>富国全球健康生活主题混合（QDII）美元</t>
-  </si>
-  <si>
-    <t>天弘医药创新混合A</t>
-  </si>
-  <si>
-    <t>天弘医药创新混合C</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-  </si>
-  <si>
-    <t>招商科技创新混合C</t>
+    <t>60.07</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>26.61</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>92.49</t>
+  </si>
+  <si>
+    <t>86.95</t>
+  </si>
+  <si>
+    <t>88.02</t>
+  </si>
+  <si>
+    <t>30.74</t>
   </si>
   <si>
     <t>91.13</t>
   </si>
   <si>
+    <t>84.44</t>
+  </si>
+  <si>
+    <t>89.91</t>
+  </si>
+  <si>
+    <t>87.84</t>
+  </si>
+  <si>
+    <t>79.75</t>
+  </si>
+  <si>
     <t>91.65</t>
   </si>
   <si>
-    <t>86.95</t>
-  </si>
-  <si>
-    <t>30.74</t>
-  </si>
-  <si>
-    <t>92.49</t>
-  </si>
-  <si>
-    <t>79.75</t>
-  </si>
-  <si>
-    <t>87.84</t>
-  </si>
-  <si>
-    <t>84.44</t>
-  </si>
-  <si>
-    <t>88.02</t>
-  </si>
-  <si>
-    <t>89.91</t>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>1.61</t>
   </si>
   <si>
     <t>4.62</t>
   </si>
   <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
     <t>4.57</t>
   </si>
   <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>5.24</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>3.69</t>
+    <t>2.2106</t>
+  </si>
+  <si>
+    <t>0.6166</t>
+  </si>
+  <si>
+    <t>0.5076</t>
+  </si>
+  <si>
+    <t>0.4284</t>
+  </si>
+  <si>
+    <t>0.3613</t>
+  </si>
+  <si>
+    <t>0.2212</t>
+  </si>
+  <si>
+    <t>0.1716</t>
+  </si>
+  <si>
+    <t>0.1640</t>
+  </si>
+  <si>
+    <t>0.1306</t>
+  </si>
+  <si>
+    <t>0.1095</t>
+  </si>
+  <si>
+    <t>0.0384</t>
+  </si>
+  <si>
+    <t>0.0244</t>
+  </si>
+  <si>
+    <t>0.0073</t>
   </si>
 </sst>
 </file>
@@ -530,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,285 +636,375 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.35</v>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1751,13 +1794,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.44</v>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.35</v>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1976,13 +2041,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.44</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.35</v>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2402,1329 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>9.300000000000001</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.44</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>7.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.21</v>
       </c>
     </row>
@@ -566,6 +583,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银瑞和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1951,7 +3696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2273,7 +4018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2481,7 +4226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3145,7 +4890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
+++ b/数据整理/stocks/港股/06078-海吉亚医疗.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>12.78</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>9.300000000000001</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.44</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>7.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.21</v>
       </c>
     </row>
@@ -583,6 +600,2604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银瑞和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005030</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2310,7 +4925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3696,7 +6311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4018,7 +6633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4226,7 +6841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4890,7 +7505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
